--- a/Client/assets/Csv/Island.xlsx
+++ b/Client/assets/Csv/Island.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/WarOfStarship/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\AnnoArk2\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,15 +37,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id2</t>
+    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,25 +367,25 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -409,9 +394,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>-1000</v>
@@ -420,9 +405,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-3000</v>
